--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slpi-Plscr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slpi-Plscr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Slpi</t>
+  </si>
+  <si>
+    <t>Plscr1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Slpi</t>
-  </si>
-  <si>
-    <t>Plscr1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>21.51428233333333</v>
+        <v>1.539300666666667</v>
       </c>
       <c r="H2">
-        <v>64.54284699999999</v>
+        <v>4.617902000000001</v>
       </c>
       <c r="I2">
-        <v>0.7719797236879435</v>
+        <v>0.7922692235305179</v>
       </c>
       <c r="J2">
-        <v>0.7719797236879435</v>
+        <v>0.7922692235305179</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.104018000000002</v>
+        <v>5.913349333333333</v>
       </c>
       <c r="N2">
-        <v>24.312054</v>
+        <v>17.740048</v>
       </c>
       <c r="O2">
-        <v>0.4124244874018781</v>
+        <v>0.3817010843638016</v>
       </c>
       <c r="P2">
-        <v>0.4124244874018781</v>
+        <v>0.3817010843638015</v>
       </c>
       <c r="Q2">
-        <v>174.3521312864154</v>
+        <v>9.102422571032889</v>
       </c>
       <c r="R2">
-        <v>1569.169181577738</v>
+        <v>81.921803139296</v>
       </c>
       <c r="S2">
-        <v>0.3183833418266436</v>
+        <v>0.3024100217296657</v>
       </c>
       <c r="T2">
-        <v>0.3183833418266436</v>
+        <v>0.3024100217296657</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>21.51428233333333</v>
+        <v>1.539300666666667</v>
       </c>
       <c r="H3">
-        <v>64.54284699999999</v>
+        <v>4.617902000000001</v>
       </c>
       <c r="I3">
-        <v>0.7719797236879435</v>
+        <v>0.7922692235305179</v>
       </c>
       <c r="J3">
-        <v>0.7719797236879435</v>
+        <v>0.7922692235305179</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>17.675156</v>
       </c>
       <c r="O3">
-        <v>0.2998375683538803</v>
+        <v>0.3803048453701678</v>
       </c>
       <c r="P3">
-        <v>0.2998375683538803</v>
+        <v>0.3803048453701677</v>
       </c>
       <c r="Q3">
-        <v>126.7560988232369</v>
+        <v>9.069126471412446</v>
       </c>
       <c r="R3">
-        <v>1140.804889409132</v>
+        <v>81.62213824271203</v>
       </c>
       <c r="S3">
-        <v>0.2314685231690934</v>
+        <v>0.3013038245463165</v>
       </c>
       <c r="T3">
-        <v>0.2314685231690934</v>
+        <v>0.3013038245463164</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>21.51428233333333</v>
+        <v>1.539300666666667</v>
       </c>
       <c r="H4">
-        <v>64.54284699999999</v>
+        <v>4.617902000000001</v>
       </c>
       <c r="I4">
-        <v>0.7719797236879435</v>
+        <v>0.7922692235305179</v>
       </c>
       <c r="J4">
-        <v>0.7719797236879435</v>
+        <v>0.7922692235305179</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.182852666666667</v>
+        <v>0.796191</v>
       </c>
       <c r="N4">
-        <v>3.548558</v>
+        <v>2.388573</v>
       </c>
       <c r="O4">
-        <v>0.06019697941464894</v>
+        <v>0.05139337301579447</v>
       </c>
       <c r="P4">
-        <v>0.06019697941464895</v>
+        <v>0.05139337301579446</v>
       </c>
       <c r="Q4">
-        <v>25.44822622940289</v>
+        <v>1.225577337094</v>
       </c>
       <c r="R4">
-        <v>229.034036064626</v>
+        <v>11.030196033846</v>
       </c>
       <c r="S4">
-        <v>0.04647084753536952</v>
+        <v>0.04071738773383776</v>
       </c>
       <c r="T4">
-        <v>0.04647084753536952</v>
+        <v>0.04071738773383774</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>21.51428233333333</v>
+        <v>1.539300666666667</v>
       </c>
       <c r="H5">
-        <v>64.54284699999999</v>
+        <v>4.617902000000001</v>
       </c>
       <c r="I5">
-        <v>0.7719797236879435</v>
+        <v>0.7922692235305179</v>
       </c>
       <c r="J5">
-        <v>0.7719797236879435</v>
+        <v>0.7922692235305179</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.471112000000001</v>
+        <v>2.890835666666666</v>
       </c>
       <c r="N5">
-        <v>13.413336</v>
+        <v>8.672507</v>
       </c>
       <c r="O5">
-        <v>0.2275409648295927</v>
+        <v>0.1866006972502363</v>
       </c>
       <c r="P5">
-        <v>0.2275409648295927</v>
+        <v>0.1866006972502362</v>
       </c>
       <c r="Q5">
-        <v>96.19276591195467</v>
+        <v>4.449865268923778</v>
       </c>
       <c r="R5">
-        <v>865.734893207592</v>
+        <v>40.04878742031401</v>
       </c>
       <c r="S5">
-        <v>0.175657011156837</v>
+        <v>0.1478379895206979</v>
       </c>
       <c r="T5">
-        <v>0.175657011156837</v>
+        <v>0.1478379895206979</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.539300666666667</v>
+        <v>0.3011166666666666</v>
       </c>
       <c r="H6">
-        <v>4.617902</v>
+        <v>0.90335</v>
       </c>
       <c r="I6">
-        <v>0.05523349024219527</v>
+        <v>0.1549830210940581</v>
       </c>
       <c r="J6">
-        <v>0.05523349024219527</v>
+        <v>0.1549830210940581</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.104018000000002</v>
+        <v>5.913349333333333</v>
       </c>
       <c r="N6">
-        <v>24.312054</v>
+        <v>17.740048</v>
       </c>
       <c r="O6">
-        <v>0.4124244874018781</v>
+        <v>0.3817010843638016</v>
       </c>
       <c r="P6">
-        <v>0.4124244874018781</v>
+        <v>0.3817010843638015</v>
       </c>
       <c r="Q6">
-        <v>12.47452031007867</v>
+        <v>1.780608040088889</v>
       </c>
       <c r="R6">
-        <v>112.270682790708</v>
+        <v>16.0254723608</v>
       </c>
       <c r="S6">
-        <v>0.02277964390055402</v>
+        <v>0.05915718720957992</v>
       </c>
       <c r="T6">
-        <v>0.02277964390055402</v>
+        <v>0.0591571872095799</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>1.539300666666667</v>
+        <v>0.3011166666666666</v>
       </c>
       <c r="H7">
-        <v>4.617902</v>
+        <v>0.90335</v>
       </c>
       <c r="I7">
-        <v>0.05523349024219527</v>
+        <v>0.1549830210940581</v>
       </c>
       <c r="J7">
-        <v>0.05523349024219527</v>
+        <v>0.1549830210940581</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>17.675156</v>
       </c>
       <c r="O7">
-        <v>0.2998375683538803</v>
+        <v>0.3803048453701678</v>
       </c>
       <c r="P7">
-        <v>0.2998375683538803</v>
+        <v>0.3803048453701677</v>
       </c>
       <c r="Q7">
-        <v>9.069126471412444</v>
+        <v>1.774094685844444</v>
       </c>
       <c r="R7">
-        <v>81.622138242712</v>
+        <v>15.9668521726</v>
       </c>
       <c r="S7">
-        <v>0.0165610754059176</v>
+        <v>0.05894079387217722</v>
       </c>
       <c r="T7">
-        <v>0.01656107540591761</v>
+        <v>0.05894079387217721</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.539300666666667</v>
+        <v>0.3011166666666666</v>
       </c>
       <c r="H8">
-        <v>4.617902</v>
+        <v>0.90335</v>
       </c>
       <c r="I8">
-        <v>0.05523349024219527</v>
+        <v>0.1549830210940581</v>
       </c>
       <c r="J8">
-        <v>0.05523349024219527</v>
+        <v>0.1549830210940581</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.182852666666667</v>
+        <v>0.796191</v>
       </c>
       <c r="N8">
-        <v>3.548558</v>
+        <v>2.388573</v>
       </c>
       <c r="O8">
-        <v>0.06019697941464894</v>
+        <v>0.05139337301579447</v>
       </c>
       <c r="P8">
-        <v>0.06019697941464895</v>
+        <v>0.05139337301579446</v>
       </c>
       <c r="Q8">
-        <v>1.820765898368444</v>
+        <v>0.23974637995</v>
       </c>
       <c r="R8">
-        <v>16.386893085316</v>
+        <v>2.15771741955</v>
       </c>
       <c r="S8">
-        <v>0.003324889275108642</v>
+        <v>0.007965100214201671</v>
       </c>
       <c r="T8">
-        <v>0.003324889275108643</v>
+        <v>0.00796510021420167</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.539300666666667</v>
+        <v>0.3011166666666666</v>
       </c>
       <c r="H9">
-        <v>4.617902</v>
+        <v>0.90335</v>
       </c>
       <c r="I9">
-        <v>0.05523349024219527</v>
+        <v>0.1549830210940581</v>
       </c>
       <c r="J9">
-        <v>0.05523349024219527</v>
+        <v>0.1549830210940581</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.471112000000001</v>
+        <v>2.890835666666666</v>
       </c>
       <c r="N9">
-        <v>13.413336</v>
+        <v>8.672507</v>
       </c>
       <c r="O9">
-        <v>0.2275409648295927</v>
+        <v>0.1866006972502363</v>
       </c>
       <c r="P9">
-        <v>0.2275409648295927</v>
+        <v>0.1866006972502362</v>
       </c>
       <c r="Q9">
-        <v>6.882385682341334</v>
+        <v>0.8704787998277776</v>
       </c>
       <c r="R9">
-        <v>61.94147114107201</v>
+        <v>7.83430919845</v>
       </c>
       <c r="S9">
-        <v>0.012567881660615</v>
+        <v>0.02891993979809932</v>
       </c>
       <c r="T9">
-        <v>0.012567881660615</v>
+        <v>0.02891993979809931</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.3306173333333333</v>
+        <v>0.1024836666666667</v>
       </c>
       <c r="H10">
-        <v>0.991852</v>
+        <v>0.307451</v>
       </c>
       <c r="I10">
-        <v>0.01186327638908358</v>
+        <v>0.05274775537542399</v>
       </c>
       <c r="J10">
-        <v>0.01186327638908358</v>
+        <v>0.05274775537542399</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.104018000000002</v>
+        <v>5.913349333333333</v>
       </c>
       <c r="N10">
-        <v>24.312054</v>
+        <v>17.740048</v>
       </c>
       <c r="O10">
-        <v>0.4124244874018781</v>
+        <v>0.3817010843638016</v>
       </c>
       <c r="P10">
-        <v>0.4124244874018781</v>
+        <v>0.3817010843638015</v>
       </c>
       <c r="Q10">
-        <v>2.679328820445334</v>
+        <v>0.6060217219608888</v>
       </c>
       <c r="R10">
-        <v>24.113959384008</v>
+        <v>5.454195497647999</v>
       </c>
       <c r="S10">
-        <v>0.0048927056836746</v>
+        <v>0.02013387542455588</v>
       </c>
       <c r="T10">
-        <v>0.0048927056836746</v>
+        <v>0.02013387542455588</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.3306173333333333</v>
+        <v>0.1024836666666667</v>
       </c>
       <c r="H11">
-        <v>0.991852</v>
+        <v>0.307451</v>
       </c>
       <c r="I11">
-        <v>0.01186327638908358</v>
+        <v>0.05274775537542399</v>
       </c>
       <c r="J11">
-        <v>0.01186327638908358</v>
+        <v>0.05274775537542399</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>17.675156</v>
       </c>
       <c r="O11">
-        <v>0.2998375683538803</v>
+        <v>0.3803048453701678</v>
       </c>
       <c r="P11">
-        <v>0.2998375683538803</v>
+        <v>0.3803048453701677</v>
       </c>
       <c r="Q11">
-        <v>1.947904314323555</v>
+        <v>0.6038049319284444</v>
       </c>
       <c r="R11">
-        <v>17.531138828912</v>
+        <v>5.434244387356</v>
       </c>
       <c r="S11">
-        <v>0.003557055945212823</v>
+        <v>0.02006022695167406</v>
       </c>
       <c r="T11">
-        <v>0.003557055945212823</v>
+        <v>0.02006022695167405</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.3306173333333333</v>
+        <v>0.1024836666666667</v>
       </c>
       <c r="H12">
-        <v>0.991852</v>
+        <v>0.307451</v>
       </c>
       <c r="I12">
-        <v>0.01186327638908358</v>
+        <v>0.05274775537542399</v>
       </c>
       <c r="J12">
-        <v>0.01186327638908358</v>
+        <v>0.05274775537542399</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.182852666666667</v>
+        <v>0.796191</v>
       </c>
       <c r="N12">
-        <v>3.548558</v>
+        <v>2.388573</v>
       </c>
       <c r="O12">
-        <v>0.06019697941464894</v>
+        <v>0.05139337301579447</v>
       </c>
       <c r="P12">
-        <v>0.06019697941464895</v>
+        <v>0.05139337301579446</v>
       </c>
       <c r="Q12">
-        <v>0.3910715943795556</v>
+        <v>0.08159657304699999</v>
       </c>
       <c r="R12">
-        <v>3.519644349416</v>
+        <v>0.7343691574229999</v>
       </c>
       <c r="S12">
-        <v>0.0007141334045839554</v>
+        <v>0.002710885067755043</v>
       </c>
       <c r="T12">
-        <v>0.0007141334045839555</v>
+        <v>0.002710885067755042</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,31 +1204,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.3306173333333333</v>
+        <v>0.1024836666666667</v>
       </c>
       <c r="H13">
-        <v>0.991852</v>
+        <v>0.307451</v>
       </c>
       <c r="I13">
-        <v>0.01186327638908358</v>
+        <v>0.05274775537542399</v>
       </c>
       <c r="J13">
-        <v>0.01186327638908358</v>
+        <v>0.05274775537542399</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.471112000000001</v>
+        <v>2.890835666666666</v>
       </c>
       <c r="N13">
-        <v>13.413336</v>
+        <v>8.672507</v>
       </c>
       <c r="O13">
-        <v>0.2275409648295927</v>
+        <v>0.1866006972502363</v>
       </c>
       <c r="P13">
-        <v>0.2275409648295927</v>
+        <v>0.1866006972502362</v>
       </c>
       <c r="Q13">
-        <v>1.478227126474667</v>
+        <v>0.2962634388507777</v>
       </c>
       <c r="R13">
-        <v>13.304044138272</v>
+        <v>2.666370949657</v>
       </c>
       <c r="S13">
-        <v>0.002699381355612205</v>
+        <v>0.009842767931439015</v>
       </c>
       <c r="T13">
-        <v>0.002699381355612205</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>4.484773000000001</v>
-      </c>
-      <c r="H14">
-        <v>13.454319</v>
-      </c>
-      <c r="I14">
-        <v>0.1609235096807777</v>
-      </c>
-      <c r="J14">
-        <v>0.1609235096807777</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>8.104018000000002</v>
-      </c>
-      <c r="N14">
-        <v>24.312054</v>
-      </c>
-      <c r="O14">
-        <v>0.4124244874018781</v>
-      </c>
-      <c r="P14">
-        <v>0.4124244874018781</v>
-      </c>
-      <c r="Q14">
-        <v>36.34468111791401</v>
-      </c>
-      <c r="R14">
-        <v>327.1021300612261</v>
-      </c>
-      <c r="S14">
-        <v>0.0663687959910059</v>
-      </c>
-      <c r="T14">
-        <v>0.0663687959910059</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>4.484773000000001</v>
-      </c>
-      <c r="H15">
-        <v>13.454319</v>
-      </c>
-      <c r="I15">
-        <v>0.1609235096807777</v>
-      </c>
-      <c r="J15">
-        <v>0.1609235096807777</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>5.891718666666667</v>
-      </c>
-      <c r="N15">
-        <v>17.675156</v>
-      </c>
-      <c r="O15">
-        <v>0.2998375683538803</v>
-      </c>
-      <c r="P15">
-        <v>0.2998375683538803</v>
-      </c>
-      <c r="Q15">
-        <v>26.42302079986267</v>
-      </c>
-      <c r="R15">
-        <v>237.807187198764</v>
-      </c>
-      <c r="S15">
-        <v>0.04825091383365649</v>
-      </c>
-      <c r="T15">
-        <v>0.0482509138336565</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>4.484773000000001</v>
-      </c>
-      <c r="H16">
-        <v>13.454319</v>
-      </c>
-      <c r="I16">
-        <v>0.1609235096807777</v>
-      </c>
-      <c r="J16">
-        <v>0.1609235096807777</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.182852666666667</v>
-      </c>
-      <c r="N16">
-        <v>3.548558</v>
-      </c>
-      <c r="O16">
-        <v>0.06019697941464894</v>
-      </c>
-      <c r="P16">
-        <v>0.06019697941464895</v>
-      </c>
-      <c r="Q16">
-        <v>5.304825702444668</v>
-      </c>
-      <c r="R16">
-        <v>47.74343132200201</v>
-      </c>
-      <c r="S16">
-        <v>0.009687109199586834</v>
-      </c>
-      <c r="T16">
-        <v>0.009687109199586836</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>4.484773000000001</v>
-      </c>
-      <c r="H17">
-        <v>13.454319</v>
-      </c>
-      <c r="I17">
-        <v>0.1609235096807777</v>
-      </c>
-      <c r="J17">
-        <v>0.1609235096807777</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>4.471112000000001</v>
-      </c>
-      <c r="N17">
-        <v>13.413336</v>
-      </c>
-      <c r="O17">
-        <v>0.2275409648295927</v>
-      </c>
-      <c r="P17">
-        <v>0.2275409648295927</v>
-      </c>
-      <c r="Q17">
-        <v>20.05192237757601</v>
-      </c>
-      <c r="R17">
-        <v>180.467301398184</v>
-      </c>
-      <c r="S17">
-        <v>0.03661669065652845</v>
-      </c>
-      <c r="T17">
-        <v>0.03661669065652845</v>
+        <v>0.009842767931439013</v>
       </c>
     </row>
   </sheetData>
